--- a/CUMCM2022支撑材料/excel/result/2/k-means_铅钡.xlsx
+++ b/CUMCM2022支撑材料/excel/result/2/k-means_铅钡.xlsx
@@ -619,7 +619,7 @@
         <v>100</v>
       </c>
       <c r="W2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         <v>99.99999999999999</v>
       </c>
       <c r="W3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -773,7 +773,7 @@
         <v>100</v>
       </c>
       <c r="W4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -850,7 +850,7 @@
         <v>97.39000000000001</v>
       </c>
       <c r="W5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -927,7 +927,7 @@
         <v>100</v>
       </c>
       <c r="W6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1004,7 +1004,7 @@
         <v>100</v>
       </c>
       <c r="W7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -1081,7 +1081,7 @@
         <v>100</v>
       </c>
       <c r="W8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -1158,7 +1158,7 @@
         <v>99.52000000000001</v>
       </c>
       <c r="W9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1235,7 +1235,7 @@
         <v>99.63</v>
       </c>
       <c r="W10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1312,7 +1312,7 @@
         <v>100</v>
       </c>
       <c r="W11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1389,7 +1389,7 @@
         <v>100</v>
       </c>
       <c r="W12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1466,7 +1466,7 @@
         <v>100</v>
       </c>
       <c r="W13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1543,7 +1543,7 @@
         <v>95.71000000000001</v>
       </c>
       <c r="W14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -1620,7 +1620,7 @@
         <v>96.68000000000002</v>
       </c>
       <c r="W15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -1697,7 +1697,7 @@
         <v>98.67</v>
       </c>
       <c r="W16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -1774,7 +1774,7 @@
         <v>100</v>
       </c>
       <c r="W17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1851,7 +1851,7 @@
         <v>97.5</v>
       </c>
       <c r="W18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -1928,7 +1928,7 @@
         <v>92.17</v>
       </c>
       <c r="W19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -2005,7 +2005,7 @@
         <v>98.94000000000001</v>
       </c>
       <c r="W20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -2082,7 +2082,7 @@
         <v>97.32999999999998</v>
       </c>
       <c r="W21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -2159,7 +2159,7 @@
         <v>93.7</v>
       </c>
       <c r="W22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -2236,7 +2236,7 @@
         <v>96.08</v>
       </c>
       <c r="W23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -2313,7 +2313,7 @@
         <v>100</v>
       </c>
       <c r="W24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -2390,7 +2390,7 @@
         <v>98.91999999999999</v>
       </c>
       <c r="W25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -2467,7 +2467,7 @@
         <v>94.24000000000001</v>
       </c>
       <c r="W26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -2544,7 +2544,7 @@
         <v>94.46999999999998</v>
       </c>
       <c r="W27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -2621,7 +2621,7 @@
         <v>100</v>
       </c>
       <c r="W28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -2698,7 +2698,7 @@
         <v>90.41</v>
       </c>
       <c r="W29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2775,7 +2775,7 @@
         <v>98.5</v>
       </c>
       <c r="W30" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2852,7 +2852,7 @@
         <v>100</v>
       </c>
       <c r="W31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
@@ -3083,7 +3083,7 @@
         <v>100</v>
       </c>
       <c r="W34" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3160,7 +3160,7 @@
         <v>99.95</v>
       </c>
       <c r="W35" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3237,7 +3237,7 @@
         <v>99.99999999999999</v>
       </c>
       <c r="W36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -3314,7 +3314,7 @@
         <v>99.99999999999999</v>
       </c>
       <c r="W37" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3699,7 +3699,7 @@
         <v>100</v>
       </c>
       <c r="W42" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3776,7 +3776,7 @@
         <v>99.89999999999999</v>
       </c>
       <c r="W43" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3853,7 +3853,7 @@
         <v>100</v>
       </c>
       <c r="W44" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4084,7 +4084,7 @@
         <v>99.25999999999999</v>
       </c>
       <c r="W47" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -4161,7 +4161,7 @@
         <v>100</v>
       </c>
       <c r="W48" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">

--- a/CUMCM2022支撑材料/excel/result/2/k-means_铅钡.xlsx
+++ b/CUMCM2022支撑材料/excel/result/2/k-means_铅钡.xlsx
@@ -619,7 +619,7 @@
         <v>100</v>
       </c>
       <c r="W2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         <v>99.99999999999999</v>
       </c>
       <c r="W3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -773,7 +773,7 @@
         <v>100</v>
       </c>
       <c r="W4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -850,7 +850,7 @@
         <v>97.39000000000001</v>
       </c>
       <c r="W5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -927,7 +927,7 @@
         <v>100</v>
       </c>
       <c r="W6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1004,7 +1004,7 @@
         <v>100</v>
       </c>
       <c r="W7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1081,7 +1081,7 @@
         <v>100</v>
       </c>
       <c r="W8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -1158,7 +1158,7 @@
         <v>99.52000000000001</v>
       </c>
       <c r="W9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1235,7 +1235,7 @@
         <v>99.63</v>
       </c>
       <c r="W10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1312,7 +1312,7 @@
         <v>100</v>
       </c>
       <c r="W11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1389,7 +1389,7 @@
         <v>100</v>
       </c>
       <c r="W12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1466,7 +1466,7 @@
         <v>100</v>
       </c>
       <c r="W13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1543,7 +1543,7 @@
         <v>95.71000000000001</v>
       </c>
       <c r="W14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -1620,7 +1620,7 @@
         <v>96.68000000000002</v>
       </c>
       <c r="W15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -1697,7 +1697,7 @@
         <v>98.67</v>
       </c>
       <c r="W16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -1774,7 +1774,7 @@
         <v>100</v>
       </c>
       <c r="W17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1851,7 +1851,7 @@
         <v>97.5</v>
       </c>
       <c r="W18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -1928,7 +1928,7 @@
         <v>92.17</v>
       </c>
       <c r="W19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2005,7 +2005,7 @@
         <v>98.94000000000001</v>
       </c>
       <c r="W20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -2082,7 +2082,7 @@
         <v>97.32999999999998</v>
       </c>
       <c r="W21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -2159,7 +2159,7 @@
         <v>93.7</v>
       </c>
       <c r="W22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -2236,7 +2236,7 @@
         <v>96.08</v>
       </c>
       <c r="W23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2313,7 +2313,7 @@
         <v>100</v>
       </c>
       <c r="W24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -2390,7 +2390,7 @@
         <v>98.91999999999999</v>
       </c>
       <c r="W25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26">
@@ -2467,7 +2467,7 @@
         <v>94.24000000000001</v>
       </c>
       <c r="W26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2544,7 +2544,7 @@
         <v>94.46999999999998</v>
       </c>
       <c r="W27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2621,7 +2621,7 @@
         <v>100</v>
       </c>
       <c r="W28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
@@ -2698,7 +2698,7 @@
         <v>90.41</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -2775,7 +2775,7 @@
         <v>98.5</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -2852,7 +2852,7 @@
         <v>100</v>
       </c>
       <c r="W31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
@@ -2929,7 +2929,7 @@
         <v>99.06</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33">
@@ -3006,7 +3006,7 @@
         <v>100</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34">
@@ -3083,7 +3083,7 @@
         <v>100</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -3160,7 +3160,7 @@
         <v>99.95</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -3237,7 +3237,7 @@
         <v>99.99999999999999</v>
       </c>
       <c r="W36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -3314,7 +3314,7 @@
         <v>99.99999999999999</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -3391,7 +3391,7 @@
         <v>99.99999999999999</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
@@ -3468,7 +3468,7 @@
         <v>100</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -3545,7 +3545,7 @@
         <v>98.20999999999997</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
@@ -3622,7 +3622,7 @@
         <v>100</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
@@ -3699,7 +3699,7 @@
         <v>100</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
@@ -3776,7 +3776,7 @@
         <v>99.89999999999999</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44">
@@ -3853,7 +3853,7 @@
         <v>100</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45">
@@ -3930,7 +3930,7 @@
         <v>100</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -4007,7 +4007,7 @@
         <v>100</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47">
@@ -4084,7 +4084,7 @@
         <v>99.25999999999999</v>
       </c>
       <c r="W47" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48">
@@ -4161,7 +4161,7 @@
         <v>100</v>
       </c>
       <c r="W48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -4238,7 +4238,7 @@
         <v>100</v>
       </c>
       <c r="W49" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50">
@@ -4315,7 +4315,7 @@
         <v>98.38</v>
       </c>
       <c r="W50" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
